--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1980,10 +1992,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2027,28 +2039,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2073,28 +2085,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2211,10 +2223,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2258,28 +2270,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2304,28 +2316,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2471,10 +2483,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2518,28 +2530,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2564,28 +2576,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2673,10 +2685,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2720,28 +2732,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2766,28 +2778,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2962,10 +2974,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3009,28 +3021,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3055,28 +3067,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3251,10 +3263,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3298,28 +3310,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3344,28 +3356,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3482,10 +3494,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3529,28 +3541,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3575,28 +3587,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3655,10 +3667,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3702,28 +3714,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3748,28 +3760,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3857,10 +3869,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3904,28 +3916,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3950,28 +3962,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4175,10 +4187,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4222,28 +4234,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4268,28 +4280,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4360,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4453,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4608,10 +4620,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4655,28 +4667,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4701,28 +4713,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4926,10 +4938,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4973,28 +4985,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5019,28 +5031,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5157,10 +5169,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5204,28 +5216,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5250,28 +5262,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5359,10 +5371,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5406,28 +5418,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5452,28 +5464,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5532,10 +5544,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5579,28 +5591,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5625,28 +5637,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5792,10 +5804,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5839,28 +5851,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5885,28 +5897,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5965,10 +5977,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6012,28 +6024,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6058,28 +6070,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6138,10 +6150,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6185,28 +6197,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6231,28 +6243,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6311,10 +6323,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6358,28 +6370,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6404,28 +6416,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6716,10 +6728,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6763,28 +6775,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6809,28 +6821,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6889,10 +6901,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6936,28 +6948,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6982,28 +6994,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7062,10 +7074,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7109,28 +7121,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7155,28 +7167,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7235,10 +7247,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
